--- a/Excel/BattleLevelConfig@cs.xlsx
+++ b/Excel/BattleLevelConfig@cs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Unity\ETIdleGame\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18FF6B6-2252-4A3F-AAE3-367C9B438768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C20F988-21D6-4ABD-9B86-46526EB103B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Id</t>
   </si>
@@ -134,6 +134,18 @@
   </si>
   <si>
     <t>1002,1002,1002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗胜利获取的经验值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     RewardExp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -611,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -622,8 +634,8 @@
     <col min="3" max="3" width="12.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="28.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="7.88671875" style="2" customWidth="1"/>
     <col min="9" max="9" width="6.44140625" style="2" customWidth="1"/>
     <col min="10" max="10" width="6.77734375" style="2" customWidth="1"/>
@@ -661,6 +673,9 @@
       <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="G3" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -681,6 +696,9 @@
       <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="G4" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -701,6 +719,9 @@
       <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="G5" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -721,6 +742,9 @@
       <c r="F6" s="10" t="s">
         <v>22</v>
       </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -742,6 +766,9 @@
       <c r="F7" s="10" t="s">
         <v>23</v>
       </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -763,6 +790,9 @@
       <c r="F8" s="10" t="s">
         <v>24</v>
       </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -784,6 +814,9 @@
       <c r="F9" s="10" t="s">
         <v>25</v>
       </c>
+      <c r="G9" s="1">
+        <v>4</v>
+      </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -805,6 +838,9 @@
       <c r="F10" s="10" t="s">
         <v>26</v>
       </c>
+      <c r="G10" s="1">
+        <v>5</v>
+      </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -825,6 +861,9 @@
       <c r="F11" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="G11" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C12" s="1">
@@ -839,6 +878,9 @@
       <c r="F12" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="G12" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C13" s="1">
@@ -853,6 +895,9 @@
       <c r="F13" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="G13" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C14" s="1">
@@ -867,6 +912,9 @@
       <c r="F14" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="G14" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
@@ -881,6 +929,9 @@
       <c r="F15" s="11">
         <v>90100</v>
       </c>
+      <c r="G15" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
@@ -895,8 +946,11 @@
       <c r="F16" s="11">
         <v>100110</v>
       </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="1">
         <v>12</v>
       </c>
@@ -908,6 +962,9 @@
       </c>
       <c r="F17" s="11">
         <v>110120</v>
+      </c>
+      <c r="G17" s="1">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
